--- a/Inflation Bloomberg.xlsx
+++ b/Inflation Bloomberg.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FBF980-F922-48A3-A9C8-83D222C5D881}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF285FF-F066-49A6-A89B-D8995E6685C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15A23FC2-6AFD-4740-A2AF-A7548ED925DE}"/>
+    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{15A23FC2-6AFD-4740-A2AF-A7548ED925DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ZC SWAP" sheetId="1" r:id="rId1"/>
     <sheet name="YOY swap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Pay Date</t>
   </si>
@@ -104,36 +104,22 @@
   </si>
   <si>
     <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,69 +131,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,11 +157,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="blp_column_header" xfId="1" xr:uid="{B743FCB2-918F-475F-ACAE-CE8A842A7B24}"/>
@@ -261,7 +193,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>235734</xdr:colOff>
+      <xdr:colOff>96669</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>74976</xdr:rowOff>
     </xdr:to>
@@ -305,9 +237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>485181</xdr:colOff>
+      <xdr:colOff>479466</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>72107</xdr:rowOff>
+      <xdr:rowOff>56867</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -733,13 +665,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6985B6-D152-419C-93F7-F4497EFBBB1A}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -816,6 +751,68 @@
       <c r="L2">
         <v>11353569.58</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>111.8/99.9</f>
+        <v>1.119119119119119</v>
+      </c>
+      <c r="I4">
+        <f>H4*10000000</f>
+        <v>11191191.191191189</v>
+      </c>
+      <c r="J4">
+        <f>I4*K2</f>
+        <v>11352668.888888886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>1.1212599999999999</v>
+      </c>
+      <c r="J6">
+        <f>J4*H6</f>
+        <v>12729293.518355552</v>
+      </c>
+    </row>
+    <row r="27" spans="19:23" x14ac:dyDescent="0.3">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="30" spans="19:23" x14ac:dyDescent="0.3">
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="19:23" x14ac:dyDescent="0.3">
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="19:23" x14ac:dyDescent="0.3">
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -827,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FB13B9-886D-425F-AE2C-8368341F5F64}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>

--- a/Inflation Bloomberg.xlsx
+++ b/Inflation Bloomberg.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF285FF-F066-49A6-A89B-D8995E6685C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F71F0-64A8-48CD-8815-18CEF3E05252}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{15A23FC2-6AFD-4740-A2AF-A7548ED925DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{15A23FC2-6AFD-4740-A2AF-A7548ED925DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ZC SWAP" sheetId="1" r:id="rId1"/>
     <sheet name="YOY swap" sheetId="2" r:id="rId2"/>
+    <sheet name="YoY swap semi ann" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
   <si>
     <t>Pay Date</t>
   </si>
@@ -107,16 +108,93 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>11/05/2019</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>08/01/2019</t>
+  </si>
+  <si>
+    <t>05/05/2020</t>
+  </si>
+  <si>
+    <t>02/01/2020</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>05/05/2022</t>
+  </si>
+  <si>
+    <t>02/01/2022</t>
+  </si>
+  <si>
+    <t>05/05/2023</t>
+  </si>
+  <si>
+    <t>02/01/2023</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>02/01/2024</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>02/01/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +208,13 @@
       <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,18 +240,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="blp_column_header" xfId="1" xr:uid="{B743FCB2-918F-475F-ACAE-CE8A842A7B24}"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -279,23 +367,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>35587</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>155893</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D02D4F9-A488-496F-8182-5E4AFCDA65C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0C79BB-FCC6-4626-9935-136F04BC5E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -311,8 +399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8580120" y="0"/>
-          <a:ext cx="4866667" cy="2533333"/>
+          <a:off x="0" y="2375417"/>
+          <a:ext cx="8006715" cy="4266109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -321,25 +409,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>173453</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>29251</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548641</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C093BE-F9D7-4431-9C4A-CD445B758A90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035FEBA3-4008-4484-81CE-885555FF13A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -348,15 +441,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1371600"/>
-          <a:ext cx="8707853" cy="4692691"/>
+          <a:off x="1" y="3378920"/>
+          <a:ext cx="9029700" cy="4818985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -667,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6985B6-D152-419C-93F7-F4497EFBBB1A}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,15 +915,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FB13B9-886D-425F-AE2C-8368341F5F64}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,19 +967,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E2">
         <v>10000000</v>
@@ -888,36 +994,42 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>0.59119999999999995</v>
+        <v>0.99902999999999997</v>
       </c>
       <c r="I2">
-        <v>105.06751</v>
+        <v>105.83687999999999</v>
       </c>
       <c r="J2">
-        <v>59094.77</v>
+        <v>99945.71</v>
       </c>
       <c r="K2">
-        <v>1.0046330000000001</v>
+        <v>1.003854</v>
       </c>
       <c r="L2">
-        <v>59368.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100330.94</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2">
+        <v>99.903639999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E3">
         <v>10000000</v>
@@ -926,36 +1038,42 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>0.50192000000000003</v>
+        <v>0.98694999999999999</v>
       </c>
       <c r="I3">
-        <v>105.59748999999999</v>
+        <v>106.88229</v>
       </c>
       <c r="J3">
-        <v>50466.77</v>
+        <v>98653.1</v>
       </c>
       <c r="K3">
-        <v>1.0106390000000001</v>
+        <v>1.0082199999999999</v>
       </c>
       <c r="L3">
-        <v>51003.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>99464.05</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3">
+        <v>99.954909999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E4">
         <v>10000000</v>
@@ -964,36 +1082,42 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>0.62741999999999998</v>
+        <v>1.0578399999999999</v>
       </c>
       <c r="I4">
-        <v>106.26595</v>
+        <v>108.01472</v>
       </c>
       <c r="J4">
-        <v>62570.59</v>
+        <v>106363.96</v>
       </c>
       <c r="K4">
-        <v>1.01661</v>
+        <v>1.0116419999999999</v>
       </c>
       <c r="L4">
-        <v>63609.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>107602.23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>100.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5">
         <v>10000000</v>
@@ -1002,33 +1126,39 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>0.79269999999999996</v>
+        <v>1.1031200000000001</v>
       </c>
       <c r="I5">
-        <v>107.11776</v>
+        <v>109.20887999999999</v>
       </c>
       <c r="J5">
-        <v>79086.559999999998</v>
+        <v>110010.19</v>
       </c>
       <c r="K5">
-        <v>1.022</v>
+        <v>1.0136829999999999</v>
       </c>
       <c r="L5">
-        <v>80826.490000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>111515.46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6">
         <v>365</v>
@@ -1040,22 +1170,826 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>1.15404</v>
+      </c>
+      <c r="I6">
+        <v>110.47262000000001</v>
+      </c>
+      <c r="J6">
+        <v>115136.8</v>
+      </c>
+      <c r="K6">
+        <v>1.0143960000000001</v>
+      </c>
+      <c r="L6">
+        <v>116794.28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6">
+        <v>103.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>365</v>
+      </c>
+      <c r="E7">
+        <v>10000000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
+      <c r="H7">
+        <v>1.2095199999999999</v>
+      </c>
+      <c r="I7">
+        <v>111.81297000000001</v>
+      </c>
+      <c r="J7">
+        <v>120900.68</v>
+      </c>
+      <c r="K7">
+        <v>1.014429</v>
+      </c>
+      <c r="L7">
+        <v>122645.13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7">
+        <v>104.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>105.83687999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>106.88229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10">
+        <v>108.01472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>109.20887999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>110.47262000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>111.81297000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>100000</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>6.66*P22</f>
+        <v>666000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C8220F-A427-4BD6-BDC7-C688276B9A6A}">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>182</v>
+      </c>
+      <c r="E2">
+        <v>10000000</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>-0.6794</v>
+      </c>
+      <c r="I2">
+        <v>104.43501000000001</v>
+      </c>
+      <c r="J2">
+        <v>-33813.129999999997</v>
+      </c>
+      <c r="K2">
+        <v>1.0015559999999999</v>
+      </c>
+      <c r="L2">
+        <v>-33865.74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>99.903639999999996</v>
+      </c>
+      <c r="V2">
+        <f>(H2+0.1)*E2/200</f>
+        <v>-28970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>184</v>
+      </c>
+      <c r="E3">
+        <v>10000000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>2.6624699999999999</v>
+      </c>
+      <c r="I3">
+        <v>105.83687999999999</v>
+      </c>
+      <c r="J3">
+        <v>133850.87</v>
+      </c>
+      <c r="K3">
+        <v>1.003854</v>
+      </c>
+      <c r="L3">
+        <v>134366.79</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3">
+        <v>99.014920000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>181</v>
+      </c>
+      <c r="E4">
+        <v>10000000</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>-0.52553000000000005</v>
+      </c>
+      <c r="I4">
+        <v>105.56148</v>
+      </c>
+      <c r="J4">
+        <v>-26038.18</v>
+      </c>
+      <c r="K4">
+        <v>1.006095</v>
+      </c>
+      <c r="L4">
+        <v>-26196.89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4">
+        <v>99.954909999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>184</v>
+      </c>
+      <c r="E5">
+        <v>10000000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>2.4807899999999998</v>
+      </c>
+      <c r="I5">
+        <v>106.88229</v>
+      </c>
+      <c r="J5">
+        <v>125058.98</v>
+      </c>
+      <c r="K5">
+        <v>1.0082199999999999</v>
+      </c>
+      <c r="L5">
+        <v>126086.99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5">
+        <v>98.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>181</v>
+      </c>
+      <c r="E6">
+        <v>10000000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
       <c r="H6">
-        <v>0.90803</v>
+        <v>-0.47788999999999998</v>
       </c>
       <c r="I6">
-        <v>108.1036</v>
+        <v>106.62987</v>
       </c>
       <c r="J6">
-        <v>90764.17</v>
+        <v>-23698.04</v>
       </c>
       <c r="K6">
-        <v>1.026621</v>
+        <v>1.010027</v>
       </c>
       <c r="L6">
-        <v>93180.36</v>
+        <v>-23935.65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>100.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>186</v>
+      </c>
+      <c r="E7">
+        <v>10000000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>2.5465300000000002</v>
+      </c>
+      <c r="I7">
+        <v>108.01472</v>
+      </c>
+      <c r="J7">
+        <v>129768.37</v>
+      </c>
+      <c r="K7">
+        <v>1.0116419999999999</v>
+      </c>
+      <c r="L7">
+        <v>131279.12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7">
+        <v>100.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>179</v>
+      </c>
+      <c r="E8">
+        <v>10000000</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>-0.43318000000000001</v>
+      </c>
+      <c r="I8">
+        <v>107.78654</v>
+      </c>
+      <c r="J8">
+        <v>-21243.63</v>
+      </c>
+      <c r="K8">
+        <v>1.012856</v>
+      </c>
+      <c r="L8">
+        <v>-21516.74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>185</v>
+      </c>
+      <c r="E9">
+        <v>10000000</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>2.6006999999999998</v>
+      </c>
+      <c r="I9">
+        <v>109.20887999999999</v>
+      </c>
+      <c r="J9">
+        <v>131816.28</v>
+      </c>
+      <c r="K9">
+        <v>1.0136829999999999</v>
+      </c>
+      <c r="L9">
+        <v>133619.93</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>182</v>
+      </c>
+      <c r="E10">
+        <v>10000000</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>-0.37658999999999998</v>
+      </c>
+      <c r="I10">
+        <v>109.00551</v>
+      </c>
+      <c r="J10">
+        <v>-18742.52</v>
+      </c>
+      <c r="K10">
+        <v>1.0141500000000001</v>
+      </c>
+      <c r="L10">
+        <v>-19007.73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10">
+        <v>103.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>183</v>
+      </c>
+      <c r="E11">
+        <v>10000000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>2.6809699999999999</v>
+      </c>
+      <c r="I11">
+        <v>110.47262000000001</v>
+      </c>
+      <c r="J11">
+        <v>134048.32999999999</v>
+      </c>
+      <c r="K11">
+        <v>1.0143960000000001</v>
+      </c>
+      <c r="L11">
+        <v>135978.06</v>
+      </c>
+      <c r="O11">
+        <f>D2/365</f>
+        <v>0.49863013698630138</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11">
+        <v>103.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>181</v>
+      </c>
+      <c r="E12">
+        <v>10000000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12">
+        <v>-0.32378000000000001</v>
+      </c>
+      <c r="I12">
+        <v>110.29729</v>
+      </c>
+      <c r="J12">
+        <v>-16042.22</v>
+      </c>
+      <c r="K12">
+        <v>1.01454</v>
+      </c>
+      <c r="L12">
+        <v>-16275.48</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12">
+        <v>104.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>184</v>
+      </c>
+      <c r="E13">
+        <v>10000000</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>2.7218499999999999</v>
+      </c>
+      <c r="I13">
+        <v>111.81297000000001</v>
+      </c>
+      <c r="J13">
+        <v>137211.26999999999</v>
+      </c>
+      <c r="K13">
+        <v>1.014429</v>
+      </c>
+      <c r="L13">
+        <v>139191.06</v>
+      </c>
+      <c r="O13">
+        <f>((R13/R12)^(1/O11)-1)*100</f>
+        <v>-0.67823074426580643</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13">
+        <v>104.43501000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <f>(R13/R12-1)*100/O11</f>
+        <v>-0.67938781802222825</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>105.83687999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15">
+        <v>105.56148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>106.88229</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17">
+        <v>106.62987</v>
+      </c>
+    </row>
+    <row r="18" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>108.01472</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19">
+        <v>107.78654</v>
+      </c>
+    </row>
+    <row r="20" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q20" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>109.20887999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21">
+        <v>109.00551</v>
+      </c>
+    </row>
+    <row r="22" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <v>110.47262000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23">
+        <v>110.29729</v>
+      </c>
+    </row>
+    <row r="24" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24">
+        <v>111.81297000000001</v>
       </c>
     </row>
   </sheetData>
